--- a/behaviorspace/July 12/LeaderVolumeNoCommunicationLowGroupSize.xlsx
+++ b/behaviorspace/July 12/LeaderVolumeNoCommunicationLowGroupSize.xlsx
@@ -4,12 +4,12 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20910"/>
   <workbookPr date1904="1" showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16160" tabRatio="500"/>
+    <workbookView minimized="1" xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16180" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="LeaderVolumeNoCommunicationLowG" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0" concurrentCalc="0"/>
+  <calcPr calcId="140001" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -140,45 +140,78 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="546776616"/>
-        <c:axId val="546788792"/>
+        <c:axId val="570924152"/>
+        <c:axId val="570927112"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="546776616"/>
+        <c:axId val="570924152"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Leader Volume</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="546788792"/>
+        <c:crossAx val="570927112"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="546788792"/>
+        <c:axId val="570927112"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
         <c:majorGridlines/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" vert="horz"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Ticks</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="546776616"/>
+        <c:crossAx val="570924152"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
     </c:plotArea>
-    <c:legend>
-      <c:legendPos val="r"/>
-      <c:layout/>
-      <c:overlay val="0"/>
-    </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
     <c:showDLblsOverMax val="0"/>
@@ -550,8 +583,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H11"/>
   <sheetViews>
-    <sheetView tabSelected="1" showRuler="0" workbookViewId="0">
-      <selection activeCell="J2" sqref="J2:J11"/>
+    <sheetView tabSelected="1" showRuler="0" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="H23" sqref="H23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
